--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/31_Erzurum_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/31_Erzurum_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CA234E6-62FB-4BEF-95DE-CAC6E4A76783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26D33CC6-B00C-4BFC-86D1-6C5F58BC6592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{2EAF2C63-4AF1-4934-9A28-B256D4A3B1C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{C0DF37C9-80DF-40DA-B984-6B6BB00B026A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -901,13 +901,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{D370CC44-EB19-43C7-9BCA-03F74314C165}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{7223942B-B2DD-40A8-922A-3AE8FB038254}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{33F3F454-DD44-4EFF-AA3A-F1B914D22B46}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{B3AA2240-5836-4EEA-B398-21705E3AF4AA}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{3EE15923-BD6C-4C8B-8A31-3439CFD6507B}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{FF0C9E71-A509-44AD-81FF-5A5D22B88322}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{2FEF96AC-BF6B-4D8A-ABD8-19AA3B03D472}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{1C14C0EA-78A2-459C-B875-EFF05097D383}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{C55B4931-ED68-469C-9B98-8D533484AEE6}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{CF7267A4-5417-4F7D-AFCA-AB295E93897C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{B5C63658-EF52-43CE-AFF5-118DF1D0AEFA}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{9DFDD4AC-E779-46C1-B6D6-285ADF856BBA}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{4FD1B223-2123-41B0-98AB-65FF71E65665}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{8D4C6B96-9737-4BEB-893F-DBD2DA09EA0A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1277,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871495EE-0EDF-4F80-806E-99413DD75149}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6608B72D-50A1-4CBD-A546-529EC190AB9D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2556,7 +2556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DD7130-63B7-4F2C-85F3-6043A8BFF3BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D439D91-9162-42B3-9D34-B40FAA438AB8}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3836,7 +3836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D442FB7-1A36-46C2-B0F0-975E1BC42F07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA915DF-A071-4AAE-B6C5-B394B1313973}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5116,7 +5116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C5CA5A-5F30-4C0F-8472-1627A390172F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ECB949-8AFF-492B-8375-D3EA9495BD3F}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6392,7 +6392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87B38BB-0D13-4506-9DFD-2935AF5259A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A89856-1615-477A-9670-F8CAB98779FC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7671,7 +7671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A548E74-A0DD-425B-BEB8-07C9922E02C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A010F7-F367-438E-BAB5-7BC60814F2FB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8952,7 +8952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D713223-89E9-41B4-AE8B-ECFA0C5BA045}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E871B140-CD33-4EBF-91EB-269178649A7B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10231,7 +10231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77502E1E-9C89-4A9F-B8B6-C2FD035C6768}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6AF981-57D5-45A1-9418-A1B2613EA4CC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11510,7 +11510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281F8FCF-09D0-4F9F-AC8B-1D547BDCCC22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5171BF20-A414-46C5-9FE1-44BFBB3E73F8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12795,7 +12795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AAA9AE-D098-46D5-8A0F-C2A419457379}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A07B89-51C2-40B7-AC8F-CBB32101755B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14072,7 +14072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6FE609-F968-453C-8F92-8CBD8A9F8CFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C72DEC-651D-478E-8FD1-BEDE23E01596}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15355,7 +15355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E415A62-4CBA-4296-B5E9-E7E2D84BEB22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D33C9D-6050-4540-9DA4-F12FC22C65F3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
